--- a/Capstone pricing sandbox.xlsx
+++ b/Capstone pricing sandbox.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tesla\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tesla\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30562CD-49F4-487C-8D33-8E00E8F4A300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37313B63-73E3-45FF-9240-998951B22177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2030EEBB-B5BC-4506-92F6-BD1070403C11}"/>
   </bookViews>
   <sheets>
     <sheet name="big version" sheetId="1" r:id="rId1"/>
-    <sheet name="Little Version" sheetId="2" r:id="rId2"/>
+    <sheet name="Little Version (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Little Version" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>price</t>
   </si>
@@ -209,16 +209,32 @@
   </si>
   <si>
     <t>1 kidney</t>
+  </si>
+  <si>
+    <t>FLIGHT TIME (min.)</t>
+  </si>
+  <si>
+    <t>TOTAL LIFT MASS (lb.)</t>
+  </si>
+  <si>
+    <t>TOTAL MASS (lb.)</t>
+  </si>
+  <si>
+    <t>brushless motor</t>
+  </si>
+  <si>
+    <t>Teensy 4.1 MC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -301,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -334,12 +350,14 @@
     <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -369,25 +387,15 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -971,11 +979,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DDC538-BC6A-4954-95E1-2023C770CB0F}">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27069C5A-9DF1-4F03-B5B6-7E7301ADB807}">
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1027,7 @@
       </c>
       <c r="B2" s="7">
         <f>B12*B3</f>
-        <v>61.05</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
@@ -1051,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="16">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
@@ -1101,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="16">
-        <v>416</v>
+        <v>175</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
@@ -1120,7 +1128,7 @@
       </c>
       <c r="B8" s="10">
         <f>(B2*B4)/B3</f>
-        <v>770</v>
+        <v>149.99999999999997</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
@@ -1139,7 +1147,7 @@
       </c>
       <c r="B9" s="7">
         <f>B8*B3*B6</f>
-        <v>8547</v>
+        <v>1664.9999999999995</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -1161,15 +1169,9 @@
         <v>60</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1177,7 +1179,7 @@
       </c>
       <c r="B11" s="7">
         <f>B7*B6*0.001</f>
-        <v>0.41600000000000004</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
@@ -1192,7 +1194,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="16">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,6 +1208,517 @@
         <v>26</v>
       </c>
       <c r="B16" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="17">
+        <v>25</v>
+      </c>
+      <c r="C26" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="16">
+        <v>52</v>
+      </c>
+      <c r="C27" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="18">
+        <v>13</v>
+      </c>
+      <c r="C28" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="16">
+        <f>B28*B36</f>
+        <v>144.29999999999998</v>
+      </c>
+      <c r="C29" s="16">
+        <f>C28*C36</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="16">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16">
+        <f>B30</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="16">
+        <v>370</v>
+      </c>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="16">
+        <f>(B27*B30)*0.001</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="C32" s="16">
+        <f>C30*C27*0.001</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="16">
+        <f>B29*B30</f>
+        <v>577.19999999999993</v>
+      </c>
+      <c r="C33" s="16">
+        <f>C29*C30</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="17">
+        <f>B26*B30</f>
+        <v>100</v>
+      </c>
+      <c r="C34" s="19">
+        <f>C30*C26</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="16">
+        <f>B31*B30*0.001</f>
+        <v>1.48</v>
+      </c>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="16">
+        <v>11.1</v>
+      </c>
+      <c r="C36" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="16">
+        <f>B11+B19+B32+C32</f>
+        <v>0.66299999999999992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <f>B42*2.2</f>
+        <v>1.4585999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="16">
+        <f>B35-B42</f>
+        <v>0.81700000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <f>B44*2.2</f>
+        <v>1.7974000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="20">
+        <f>(B42/B35)*B33</f>
+        <v>258.56999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="16">
+        <f>B44-B11-B19</f>
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="17">
+        <f>B10+B16+B34+C34</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="18">
+        <f>(B2/B46)*3600*0.9</f>
+        <v>417.26418378002091</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="21">
+        <f>B49/60</f>
+        <v>6.9544030630003482</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C36">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>_xlfn.ISFORMULA(B2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:B56">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>_xlfn.ISFORMULA(B41)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" display="https://www.amazon.com/Adafruit-Absolute-Orientation-Fusion-Breakout/dp/B017PEIGIG/ref=sxts_sxwds-bia-wc-p13n1_0?cv_ct_cx=bno055&amp;dchild=1&amp;keywords=bno055&amp;pd_rd_i=B017PEIGIG&amp;pd_rd_r=dcc6d547-849c-4251-a5c0-a670cab29b85&amp;pd_rd_w=IQ5GE&amp;pd_rd_wg=uvpg3&amp;pf_rd_p=e7ea7987-56a0-4822-adda-f67db5e22b16&amp;pf_rd_r=0V7EMSPRH1AKKZQB1RJD&amp;psc=1&amp;qid=1599874763&amp;sr=1-1-791c2399-d602-4248-afbb-8a79de2d236f" xr:uid="{AAA4BFB5-E45C-4EEC-81ED-DC287ACDDDF0}"/>
+    <hyperlink ref="H7" r:id="rId2" display="https://www.amazon.com/400x500x3-0MM-Carbon-Fiber-Sheet-Twill/dp/B085H7NX4N/ref=asc_df_B085H7NX4N/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=459474431166&amp;hvpos=&amp;hvnetw=g&amp;hvrand=1344633805761958252&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9029979&amp;hvtargid=pla-949896176769&amp;psc=1" xr:uid="{6157F175-AE3E-46B7-9B5E-831CFDCD5935}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DDC538-BC6A-4954-95E1-2023C770CB0F}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7"/>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7">
+        <f>B12*B3</f>
+        <v>61.05</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="8">
+        <v>60</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16">
+        <v>11.1</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="8">
+        <v>120</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="16">
+        <v>140</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="8">
+        <v>60</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="19">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="8">
+        <v>400</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="8">
+        <v>35</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="16">
+        <v>416</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="8">
+        <v>100</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10">
+        <f>(B2*B4)/B3</f>
+        <v>770</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="8">
+        <v>180</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7">
+        <f>B8*B3*B6</f>
+        <v>8547</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8">
+        <v>150</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9">
+        <f>B5*B6</f>
+        <v>60</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7">
+        <f>B7*B6*0.001</f>
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SUM(G2:G9)</f>
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="17">
         <v>400</v>
       </c>
     </row>
@@ -1320,7 +1833,10 @@
         <f>(B26*B29)*0.001</f>
         <v>0.26</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="16">
+        <f>C29*C26*0.001</f>
+        <v>0.128</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -1374,8 +1890,12 @@
         <v>36</v>
       </c>
       <c r="B42" s="16">
-        <f>B11+B18+B31</f>
-        <v>1.4259999999999999</v>
+        <f>B11+B18+B31+C31</f>
+        <v>1.5539999999999998</v>
+      </c>
+      <c r="C42">
+        <f>2.20462*B42</f>
+        <v>3.4259794799999992</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1384,7 +1904,11 @@
       </c>
       <c r="B43" s="16">
         <f>B34-B42</f>
-        <v>2.1740000000000004</v>
+        <v>2.0460000000000003</v>
+      </c>
+      <c r="C43">
+        <f>5/2.20462</f>
+        <v>2.2679645471781988</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1393,7 +1917,7 @@
       </c>
       <c r="B44" s="18">
         <f>(B32*((B43-B45)/B43))+B17+C32</f>
-        <v>514.82833486660525</v>
+        <v>540.15483870967728</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,7 +1926,7 @@
       </c>
       <c r="B45" s="16">
         <f>B43-B11-B18</f>
-        <v>1.0080000000000005</v>
+        <v>0.88000000000000034</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,7 +1944,7 @@
       </c>
       <c r="B47" s="18">
         <f>(B2/B44)*3600</f>
-        <v>426.89958014246855</v>
+        <v>406.88333094453213</v>
       </c>
     </row>
   </sheetData>
